--- a/small_funds.xlsx
+++ b/small_funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\python\funds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04570D2B-9819-405F-B904-075AA6665E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDE9C41-5C3C-458E-9027-980B1BA2644E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="440" windowWidth="33280" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12990" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>002834</t>
   </si>
@@ -161,6 +161,170 @@
   </si>
   <si>
     <t>002496</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏新锦绣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元顺安元启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇安多策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏睿磐泰荣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏睿磐泰利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成景恒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝盈新锐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金合信积极成长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工银聚享</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富荣福耀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华商品质慧选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇泉启元未来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒越均衡优选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏泰兴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生加银专精特新智选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创金合信启富</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信保诚景气优选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信灵活配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华中小市值优选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信保诚多策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺安多策略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渤海汇金新动能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧小盘成长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国联鑫起点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发量化多因子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成动态量化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金信量化精选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银华专精特新量化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国金量化多因子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国金量化精选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平量化选股</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商量化精选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧量化先锋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中银量化选股</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东财量化精选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商成长量化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰聚智量化选股</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中加专精特新量化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海开源量化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -537,250 +701,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/small_funds.xlsx
+++ b/small_funds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\python\funds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDE9C41-5C3C-458E-9027-980B1BA2644E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50096D36-5710-43F7-BC76-E58C69FE0FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12990" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>002834</t>
   </si>
@@ -325,6 +325,22 @@
   </si>
   <si>
     <t>前海开源量化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>025448</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万家元晟量化选股</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>006532</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华泰柏瑞量化阿尔法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +720,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1042,10 +1058,20 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>

--- a/small_funds.xlsx
+++ b/small_funds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\python\funds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50096D36-5710-43F7-BC76-E58C69FE0FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BA28BD-F665-46BF-8129-41375F351154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>002834</t>
   </si>
@@ -341,6 +341,62 @@
   </si>
   <si>
     <t>华泰柏瑞量化阿尔法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>024500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴华景和混合发起</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>001735</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发新锐智选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>020304</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信澳星亮智选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>025487</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中邮新锐量化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰信智选量化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>013034</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦银安盛增长动力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>014003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富荣福康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>005105</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -717,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1074,22 +1130,90 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
